--- a/Factura wps.xlsx
+++ b/Factura wps.xlsx
@@ -85,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -114,28 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -153,15 +131,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,82 +163,96 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +273,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,61 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,97 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +593,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +636,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,216 +685,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,9 +848,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,9 +892,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,7 +1245,7 @@
   <dimension ref="B15:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J29" sqref="J29:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1309,28 +1303,28 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>14.99</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f>D16*E16</f>
         <v>29.98</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0.05</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f>F16*G16</f>
         <v>1.499</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.21</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <f>(F16-H16)*I16</f>
         <v>5.98101</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <f>F16-H16+J16</f>
         <v>34.46201</v>
       </c>
@@ -1345,28 +1339,28 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>29.15</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <f t="shared" ref="F17:F24" si="0">D17*E17</f>
         <v>29.15</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>0.03</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <f t="shared" ref="H17:H24" si="1">F17*G17</f>
         <v>0.8745</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>0.21</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <f t="shared" ref="J17:J24" si="2">(F17-H17)*I17</f>
         <v>5.937855</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <f t="shared" ref="K17:K24" si="3">F17-H17+J17</f>
         <v>34.213355</v>
       </c>
@@ -1381,28 +1375,28 @@
       <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>25.66</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>76.98</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>0.1</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
         <v>7.698</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>0.1</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <f t="shared" si="2"/>
         <v>6.9282</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <f t="shared" si="3"/>
         <v>76.2102</v>
       </c>
@@ -1417,26 +1411,26 @@
       <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>0.85</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17">
+      <c r="G19" s="17"/>
+      <c r="H19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>0.04</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <f t="shared" si="3"/>
         <v>4.42</v>
       </c>
@@ -1445,24 +1439,24 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17">
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1470,24 +1464,24 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="17">
+      <c r="G21" s="17"/>
+      <c r="H21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17">
+      <c r="I21" s="27"/>
+      <c r="J21" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1496,24 +1490,24 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17">
+      <c r="G22" s="17"/>
+      <c r="H22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="17">
+      <c r="I22" s="27"/>
+      <c r="J22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1522,24 +1516,24 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17">
+      <c r="G23" s="17"/>
+      <c r="H23" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="17">
+      <c r="I23" s="27"/>
+      <c r="J23" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1548,24 +1542,24 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17">
+      <c r="G24" s="17"/>
+      <c r="H24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="17">
+      <c r="I24" s="27"/>
+      <c r="J24" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1574,132 +1568,132 @@
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>SUM(F16:F25)</f>
         <v>140.36</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4">
         <f>SUM(H16:H25)</f>
         <v>10.0715</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="22">
+      <c r="E26" s="5"/>
+      <c r="F26" s="20">
         <v>0.04</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22">
         <f ca="1">SUMIF(I$16:K$25,F26,K$16:K$25)-SUMIF(I$16:K$25,F26,J$16:J$25)</f>
         <v>4.25</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="24">
+      <c r="I26" s="28"/>
+      <c r="J26" s="22">
         <f ca="1">F26*H26</f>
         <v>0.17</v>
       </c>
-      <c r="K26" s="30"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="20">
         <v>0.1</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24">
+      <c r="G27" s="21"/>
+      <c r="H27" s="22">
         <f ca="1">SUMIF(I$16:K$25,F27,K$16:K$25)-SUMIF(I$16:K$25,F27,J$16:J$25)</f>
         <v>69.282</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="24">
+      <c r="I27" s="28"/>
+      <c r="J27" s="22">
         <f ca="1">F27*H27</f>
         <v>6.9282</v>
       </c>
-      <c r="K27" s="30"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="22">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20">
         <v>0.21</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24">
+      <c r="G28" s="21"/>
+      <c r="H28" s="22">
         <f ca="1">SUMIF(I$16:K$25,F28,K$16:K$25)-SUMIF(I$16:K$25,F28,J$16:J$25)</f>
         <v>56.7565</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="24">
+      <c r="I28" s="28"/>
+      <c r="J28" s="22">
         <f ca="1">F28*H28</f>
         <v>11.918865</v>
       </c>
-      <c r="K28" s="30"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="11" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="5">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="4">
         <f ca="1">H26+H27+H28+J26+J27+J28</f>
         <v>149.305565</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
